--- a/medicine/Enfance/Joyce_Lankester_Brisley/Joyce_Lankester_Brisley.xlsx
+++ b/medicine/Enfance/Joyce_Lankester_Brisley/Joyce_Lankester_Brisley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joyce Lankester Brisley (1896-1978) est une romancière et une illustratrice anglaise de livres pour enfants. Elle est surtout connue pour la série Une toute petite fille (Milly-Molly-Mandy en vo), destinée aux fillettes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joyce L. Brisley est née en 1896 à Bexhill-on-Sea, station balnéaire du sud de l'Angleterre. Elle a vécu à Londres, mais a fréquemment résidé à la campagne, d'où elle puise l'essentiel de son inspiration. Elle a commencé à gagner de l'argent dès l'âge de seize ans en réalisant des illustrations de cartes de Noël et cartes postales.
 Joyce Lankester Brisley avait deux sœurs, également illustratrices : Nina K. Brisley et Ethel C. Brisley.
@@ -544,7 +558,9 @@
           <t>Une toute petite fille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Joyce L. Brisley rencontre le succès avec la série de romans Milly-Molly-Mandy (du nom de l’héroïne - en français : Mili-Mali-Malou), destinée aux lectrices de cinq à huit ans environ. Le premier tome est publié en 1928, après avoir d'abord paru en 1925 dans le magazine The Christian Science Monitor. L'auteur a illustré elle-même les six volumes que compte la série.
 L’héroïne est une fillette qui vit dans un petit village d'Angleterre avec ses parents, grands-parents, son oncle et sa tante. Elle a également deux amies. Chaque volume conte les petites activités quotidiennes d'une petite fille de la campagne : aller à l'école, pêcher, pique-niquer, préparer des cadeaux, etc.
